--- a/ucsd_ece.xlsx
+++ b/ucsd_ece.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11118"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveli/Developer/Python/ECE143_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C5D64-0600-F24E-B049-F4667FA5852D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22120" windowHeight="21020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -496,12 +502,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -509,8 +515,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -556,15 +569,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,9 +659,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,6 +711,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,12 +904,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
@@ -9230,6 +9293,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ucsd_ece.xlsx
+++ b/ucsd_ece.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11118"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveli/Developer/Python/ECE143_Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C5D64-0600-F24E-B049-F4667FA5852D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22120" windowHeight="21020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>01</t>
   </si>
@@ -94,6 +88,12 @@
     <t>magnetic recording</t>
   </si>
   <si>
+    <t>circuit design</t>
+  </si>
+  <si>
+    <t>math a-b-c</t>
+  </si>
+  <si>
     <t>optical pulses</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>fuzzy logic</t>
   </si>
   <si>
+    <t>system design</t>
+  </si>
+  <si>
     <t>information processing</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>state electronics</t>
   </si>
   <si>
+    <t>systems design</t>
+  </si>
+  <si>
     <t>filter banks</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>semiconductor physics</t>
   </si>
   <si>
+    <t>engineering design</t>
+  </si>
+  <si>
     <t>digital systems</t>
   </si>
   <si>
@@ -184,9 +193,15 @@
     <t>junction transistors</t>
   </si>
   <si>
+    <t>h-l luo</t>
+  </si>
+  <si>
     <t>random variables</t>
   </si>
   <si>
+    <t>design project</t>
+  </si>
+  <si>
     <t>solar system</t>
   </si>
   <si>
@@ -217,31 +232,175 @@
     <t>systems applications</t>
   </si>
   <si>
+    <t>offered /</t>
+  </si>
+  <si>
     <t>system theory</t>
   </si>
   <si>
     <t>control systems</t>
   </si>
   <si>
+    <t>computer-aided design</t>
+  </si>
+  <si>
     <t>pattern recognition</t>
   </si>
   <si>
     <t>optical system</t>
   </si>
   <si>
+    <t>compu•ter engineering</t>
+  </si>
+  <si>
+    <t>lec ture</t>
+  </si>
+  <si>
+    <t>con sent</t>
+  </si>
+  <si>
+    <t>labora tory</t>
+  </si>
+  <si>
+    <t>bet ter</t>
+  </si>
+  <si>
+    <t>sys tems</t>
+  </si>
+  <si>
+    <t>optical systems</t>
+  </si>
+  <si>
+    <t>problem solving</t>
+  </si>
+  <si>
+    <t>vlsi design</t>
+  </si>
+  <si>
+    <t>math a-b</t>
+  </si>
+  <si>
+    <t>phys a-d</t>
+  </si>
+  <si>
+    <t>dis cussion</t>
+  </si>
+  <si>
+    <t>data networks</t>
+  </si>
+  <si>
+    <t>analy sis</t>
+  </si>
+  <si>
+    <t>integrated circuit</t>
+  </si>
+  <si>
+    <t>modulation techniques</t>
+  </si>
+  <si>
+    <t>cmos analog</t>
+  </si>
+  <si>
+    <t>fourier transform</t>
+  </si>
+  <si>
+    <t>quantum electronics</t>
+  </si>
+  <si>
+    <t>spatial light</t>
+  </si>
+  <si>
+    <t>femtosecond optical</t>
+  </si>
+  <si>
+    <t>advanced acoustics</t>
+  </si>
+  <si>
+    <t>state physics</t>
+  </si>
+  <si>
+    <t>spectral estimation</t>
+  </si>
+  <si>
+    <t>digital integrated</t>
+  </si>
+  <si>
+    <t>systems including</t>
+  </si>
+  <si>
     <t>optical information</t>
   </si>
   <si>
-    <t>quantum electronics</t>
-  </si>
-  <si>
-    <t>advanced acoustics</t>
-  </si>
-  <si>
-    <t>state physics</t>
-  </si>
-  <si>
-    <t>spectral estimation</t>
+    <t>optical fiber</t>
+  </si>
+  <si>
+    <t>final report</t>
+  </si>
+  <si>
+    <t>analog integrated</t>
+  </si>
+  <si>
+    <t>none f,w,s</t>
+  </si>
+  <si>
+    <t>digital design</t>
+  </si>
+  <si>
+    <t>gaussian processes</t>
+  </si>
+  <si>
+    <t>sensor networks</t>
+  </si>
+  <si>
+    <t>materials science</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>stochastic processes</t>
+  </si>
+  <si>
+    <t>wireless networks</t>
+  </si>
+  <si>
+    <t>information theory</t>
+  </si>
+  <si>
+    <t>communication systems</t>
+  </si>
+  <si>
+    <t>design projects</t>
+  </si>
+  <si>
+    <t>members subject</t>
+  </si>
+  <si>
+    <t>computational statistics</t>
+  </si>
+  <si>
+    <t>transistor circuits</t>
+  </si>
+  <si>
+    <t>frequency response</t>
+  </si>
+  <si>
+    <t>shortest path</t>
+  </si>
+  <si>
+    <t>math a–b</t>
+  </si>
+  <si>
+    <t>graphical models</t>
+  </si>
+  <si>
+    <t>communication theory</t>
+  </si>
+  <si>
+    <t>machine intelligence</t>
+  </si>
+  <si>
+    <t>markov chain</t>
   </si>
   <si>
     <t>linear prediction</t>
@@ -250,186 +409,15 @@
     <t>source coding</t>
   </si>
   <si>
-    <t>fault tolerance</t>
+    <t>markov chains</t>
   </si>
   <si>
     <t>radio frequency</t>
   </si>
   <si>
-    <t>compu•ter engineering</t>
-  </si>
-  <si>
-    <t>lec ture</t>
-  </si>
-  <si>
-    <t>con sent</t>
-  </si>
-  <si>
-    <t>bet ter</t>
-  </si>
-  <si>
-    <t>sys tems</t>
-  </si>
-  <si>
-    <t>optical systems</t>
-  </si>
-  <si>
-    <t>problem solving</t>
-  </si>
-  <si>
-    <t>dis cussion</t>
-  </si>
-  <si>
-    <t>data networks</t>
-  </si>
-  <si>
-    <t>analy sis</t>
-  </si>
-  <si>
-    <t>integrated circuit</t>
-  </si>
-  <si>
-    <t>modulation techniques</t>
-  </si>
-  <si>
-    <t>estima tion</t>
-  </si>
-  <si>
-    <t>none f,w,s</t>
-  </si>
-  <si>
-    <t>engineering profession</t>
-  </si>
-  <si>
-    <t>lab teams</t>
-  </si>
-  <si>
-    <t>other branches</t>
-  </si>
-  <si>
-    <t>active circuits</t>
-  </si>
-  <si>
-    <t>transfer functions</t>
-  </si>
-  <si>
-    <t>functions poles</t>
-  </si>
-  <si>
-    <t>active filters</t>
-  </si>
-  <si>
-    <t>design project</t>
-  </si>
-  <si>
-    <t>systems including</t>
-  </si>
-  <si>
-    <t>final report</t>
-  </si>
-  <si>
-    <t>electronics lab</t>
-  </si>
-  <si>
-    <t>semiconductor devices</t>
-  </si>
-  <si>
-    <t>circuit design</t>
-  </si>
-  <si>
-    <t>computer-aided design</t>
-  </si>
-  <si>
-    <t>cmos analog</t>
-  </si>
-  <si>
-    <t>digital design</t>
-  </si>
-  <si>
-    <t>vlsi design</t>
-  </si>
-  <si>
-    <t>gaussian processes</t>
-  </si>
-  <si>
-    <t>fourier transform</t>
-  </si>
-  <si>
-    <t>engineering design</t>
-  </si>
-  <si>
-    <t>systems design</t>
-  </si>
-  <si>
-    <t>sensor networks</t>
-  </si>
-  <si>
-    <t>stochastic processes</t>
-  </si>
-  <si>
-    <t>materials science</t>
-  </si>
-  <si>
-    <t>machine learning</t>
-  </si>
-  <si>
-    <t>wireless networks</t>
-  </si>
-  <si>
-    <t>information theory</t>
-  </si>
-  <si>
-    <t>communication systems</t>
-  </si>
-  <si>
-    <t>design projects</t>
-  </si>
-  <si>
-    <t>system design</t>
-  </si>
-  <si>
-    <t>computational statistics</t>
-  </si>
-  <si>
-    <t>transistor circuits</t>
-  </si>
-  <si>
-    <t>frequency response</t>
-  </si>
-  <si>
-    <t>shortest path</t>
-  </si>
-  <si>
-    <t>math a–b</t>
-  </si>
-  <si>
-    <t>graphical models</t>
-  </si>
-  <si>
-    <t>communication theory</t>
-  </si>
-  <si>
-    <t>machine intelligence</t>
-  </si>
-  <si>
-    <t>markov chain</t>
-  </si>
-  <si>
-    <t>markov chains</t>
-  </si>
-  <si>
     <t>dynamic systems</t>
   </si>
   <si>
-    <t>logic design</t>
-  </si>
-  <si>
-    <t>a–b math</t>
-  </si>
-  <si>
-    <t>fourier series</t>
-  </si>
-  <si>
     <t>markov models</t>
   </si>
   <si>
@@ -442,27 +430,21 @@
     <t>network information</t>
   </si>
   <si>
+    <t>energy conversion</t>
+  </si>
+  <si>
     <t>statistical learning</t>
   </si>
   <si>
     <t>embedded systems</t>
   </si>
   <si>
-    <t>energy conversion</t>
-  </si>
-  <si>
     <t>power electronics</t>
   </si>
   <si>
     <t>special interest</t>
   </si>
   <si>
-    <t>circuit theory</t>
-  </si>
-  <si>
-    <t>priority enrollment</t>
-  </si>
-  <si>
     <t>final project</t>
   </si>
   <si>
@@ -485,29 +467,17 @@
   </si>
   <si>
     <t>models sampling</t>
-  </si>
-  <si>
-    <t>biomedical imaging</t>
-  </si>
-  <si>
-    <t>public speaking</t>
-  </si>
-  <si>
-    <t>magnetic materials</t>
-  </si>
-  <si>
-    <t>hardware platforms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,15 +485,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,23 +532,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,27 +614,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,24 +648,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,18 +823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
@@ -1332,25 +1245,25 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1371,19 +1284,19 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1391,58 +1304,58 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1450,58 +1363,58 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1515,52 +1428,52 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1571,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1580,19 +1493,19 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1613,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1630,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1639,46 +1552,46 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1686,58 +1599,58 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1745,58 +1658,58 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1828,34 +1741,34 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1887,34 +1800,34 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1928,52 +1841,52 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2005,34 +1918,34 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2043,46 +1956,46 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2132,16 +2045,16 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2161,46 +2074,46 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2220,52 +2133,52 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23">
         <v>3</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2297,37 +2210,37 @@
         <v>4</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2341,52 +2254,52 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2397,55 +2310,55 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2456,55 +2369,55 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2518,52 +2431,52 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2571,10 +2484,10 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2630,58 +2543,58 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2689,16 +2602,16 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2713,34 +2626,34 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2748,58 +2661,58 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2819,46 +2732,46 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2869,55 +2782,55 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2987,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2996,16 +2909,16 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3014,28 +2927,28 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3046,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -3064,37 +2977,37 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3105,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -3132,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -3144,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -3153,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3164,55 +3077,55 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3282,13 +3195,13 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -3341,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3371,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3400,37 +3313,37 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3477,37 +3390,37 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3524,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -3545,28 +3458,28 @@
         <v>4</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3580,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3589,34 +3502,34 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3636,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3695,34 +3608,34 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3754,13 +3667,13 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -3775,34 +3688,34 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3813,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3834,34 +3747,34 @@
         <v>3</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3884,10 +3797,10 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>5</v>
@@ -3934,52 +3847,52 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3990,46 +3903,46 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4052,37 +3965,37 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -4108,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -4120,10 +4033,10 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4167,22 +4080,22 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4244,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4285,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -4297,43 +4210,43 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4344,28 +4257,28 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4374,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4403,55 +4316,55 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4462,13 +4375,13 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4492,22 +4405,22 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4819,22 +4732,22 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4875,22 +4788,22 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5014,22 +4927,22 @@
         <v>3</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -5058,22 +4971,22 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5114,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -5135,31 +5048,31 @@
         <v>3</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5173,22 +5086,22 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -5232,43 +5145,43 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -5288,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5347,55 +5260,55 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5406,25 +5319,25 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5468,28 +5381,28 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -5507,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5527,43 +5440,43 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -5586,19 +5499,19 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5607,16 +5520,16 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -5645,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5704,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5728,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -5763,28 +5676,28 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -5796,16 +5709,16 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5822,34 +5735,34 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5881,19 +5794,19 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5908,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5943,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6002,31 +5915,31 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -6061,49 +5974,49 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6120,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -6179,25 +6092,25 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -6215,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -6241,16 +6154,16 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -6262,22 +6175,22 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -6312,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -6371,34 +6284,34 @@
         <v>3</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6430,34 +6343,34 @@
         <v>3</v>
       </c>
       <c r="J94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6477,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -6489,34 +6402,34 @@
         <v>3</v>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6536,46 +6449,46 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6598,43 +6511,43 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6657,10 +6570,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -6781,37 +6694,37 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S100">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -6840,37 +6753,37 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S101">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -6902,34 +6815,34 @@
         <v>3</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -6958,37 +6871,37 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S103">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7017,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -7079,34 +6992,34 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7138,34 +7051,34 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7256,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M108">
         <v>3</v>
@@ -7274,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -7283,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7315,34 +7228,34 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7377,31 +7290,31 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7439,28 +7352,28 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S111">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7498,28 +7411,28 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7569,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -7578,7 +7491,7 @@
         <v>3</v>
       </c>
       <c r="S113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7619,25 +7532,25 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>3</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S114">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7678,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>3</v>
@@ -7737,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <v>3</v>
@@ -7799,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -7808,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R117">
         <v>0</v>
@@ -7858,22 +7771,22 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -7917,19 +7830,19 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -7979,19 +7892,19 @@
         <v>0</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S120">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8041,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -8050,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8097,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -8109,7 +8022,7 @@
         <v>3</v>
       </c>
       <c r="S122">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8156,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8221,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S124">
         <v>5</v>
@@ -8280,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S125">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8398,13 +8311,13 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S127">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8457,13 +8370,13 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8516,13 +8429,13 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8575,13 +8488,13 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8637,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8699,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8758,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8817,483 +8730,10 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
-      <c r="A135" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="A136" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
-      <c r="A137" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
-      <c r="A138" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
-      <c r="A139" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
-      <c r="A140" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="S140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
-      <c r="A141" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="S141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
-      <c r="A142" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>